--- a/biology/Médecine/1587_en_santé_et_médecine/1587_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1587_en_santé_et_médecine/1587_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1587_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1587_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1587 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1587_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1587_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>19 octobre : mort de François Ier, grand-duc de Toscane, souvent attribuée à un empoisonnement par l'arsenic, mais qui pourrait n'avoir été causée que par la malaria[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19 octobre : mort de François Ier, grand-duc de Toscane, souvent attribuée à un empoisonnement par l'arsenic, mais qui pourrait n'avoir été causée que par la malaria.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1587_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1587_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,11 +555,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital Santa Maria della Pace, à Naples, via Tribunali, par les frères de Saint-Jean-de-Dieu[2].
-Le médecin Sholz von Rosenau fonde un jardin botanique à Breslau[3].
-L'hôpital Sainte-Marie de l'Humilité (Ospedale di Santa Maria dell'Umiltà (it)) de Florence, fondé en 1382 par Simone Piero Vespucci, est confié aux hospitaliers de  Saint-Jean-de-Dieu par Ferdinand Ier, grand-duc de Toscane[4],[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital Santa Maria della Pace, à Naples, via Tribunali, par les frères de Saint-Jean-de-Dieu.
+Le médecin Sholz von Rosenau fonde un jardin botanique à Breslau.
+L'hôpital Sainte-Marie de l'Humilité (Ospedale di Santa Maria dell'Umiltà (it)) de Florence, fondé en 1382 par Simone Piero Vespucci, est confié aux hospitaliers de  Saint-Jean-de-Dieu par Ferdinand Ier, grand-duc de Toscane,.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1587_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1587_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Eustachio Rudio publie son De virtutibus et viciis cordis[6],[7].
-Dans son De tumoribus secundum locos affectos publié à Venise[8], l'anatomiste Jules-César Arantius (1530-1589), élève de Vésale, aborde les problèmes posés par l'éclairage dans l'exploration visuelle des organes internes[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eustachio Rudio publie son De virtutibus et viciis cordis,.
+Dans son De tumoribus secundum locos affectos publié à Venise, l'anatomiste Jules-César Arantius (1530-1589), élève de Vésale, aborde les problèmes posés par l'éclairage dans l'exploration visuelle des organes internes.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1587_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1587_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,12 +622,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8 janvier : Johannes Fabricius (mort en 1616), fils de David Fabricius, devenu astronome, comme son père, après avoir renoncé à ses études de médecine[10].
-25 mars : Giuseppe degli Aromatari (mort en 1660), médecin, botaniste et homme de lettres italien[11].
-Domenico Panaroli (en) (mort en 1657), médecin et philosophe italien[12].
-René Moreau (mort en 1656), que Guy Patin désigne comme un « excellent médecin de Paris » et dont il qualifie de « beaux et doctes[13] » les commentaires de son édition de la Schola Salernitana[14].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8 janvier : Johannes Fabricius (mort en 1616), fils de David Fabricius, devenu astronome, comme son père, après avoir renoncé à ses études de médecine.
+25 mars : Giuseppe degli Aromatari (mort en 1660), médecin, botaniste et homme de lettres italien.
+Domenico Panaroli (en) (mort en 1657), médecin et philosophe italien.
+René Moreau (mort en 1656), que Guy Patin désigne comme un « excellent médecin de Paris » et dont il qualifie de « beaux et doctes » les commentaires de son édition de la Schola Salernitana.</t>
         </is>
       </c>
     </row>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1587_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1587_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,16 +657,18 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1er janvier : Francisco Hernández (né en 1515), botaniste espagnol chargé en 1570 par le roi Philippe II de rédiger une description de toutes les plantes médicinales endémiques des colonies américaines[15],[16].
-17 novembre : François Rasse des Neux (né vers 1525), médecin et chirurgien français, fils du médecin François Rasse l'Ancien († 1561[17],[18]).
-Leonardo Botallo (né en 1530), médecin piémontais[19].
-Girolamo Donzellini (it) (né vers 1513), médecin italien converti au protestantisme, accusé d'hérésie par l'Inquisition et condamné à la mort par noyade[20],[21],[22].
-Nicolas Houël (né vers 1520 ou 1524), apothicaire parisien[23],[24].
-Francesco Alessandri (né vers 1529), médecin italien, au service du duc de Savoie[25], auteur d'un traité de peste paru en 1586[26].
-Giovanni Battista Cavallara (it) (né à une date inconnue), homme de lettres et médecin italien[27].
-Vers 1587 ou 1588[28] : Juan Valverde de Amusco (en) (né vers 1525), anatomiste espagnol, surtout connu comme auteur, en 1556, d'une importante Historia de la composicion del cuerpo humano[29].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er janvier : Francisco Hernández (né en 1515), botaniste espagnol chargé en 1570 par le roi Philippe II de rédiger une description de toutes les plantes médicinales endémiques des colonies américaines,.
+17 novembre : François Rasse des Neux (né vers 1525), médecin et chirurgien français, fils du médecin François Rasse l'Ancien († 1561,).
+Leonardo Botallo (né en 1530), médecin piémontais.
+Girolamo Donzellini (it) (né vers 1513), médecin italien converti au protestantisme, accusé d'hérésie par l'Inquisition et condamné à la mort par noyade.
+Nicolas Houël (né vers 1520 ou 1524), apothicaire parisien,.
+Francesco Alessandri (né vers 1529), médecin italien, au service du duc de Savoie, auteur d'un traité de peste paru en 1586.
+Giovanni Battista Cavallara (it) (né à une date inconnue), homme de lettres et médecin italien.
+Vers 1587 ou 1588 : Juan Valverde de Amusco (en) (né vers 1525), anatomiste espagnol, surtout connu comme auteur, en 1556, d'une importante Historia de la composicion del cuerpo humano.</t>
         </is>
       </c>
     </row>
